--- a/biology/Histoire de la zoologie et de la botanique/Giuseppe_Acerbi/Giuseppe_Acerbi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Giuseppe_Acerbi/Giuseppe_Acerbi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giuseppe Acerbi est un explorateur, naturaliste, archéologue, diplomate, compositeur et propriétaire terrien italien, né le 3 mai 1773 à Castel Goffredo près de Mantoue et mort le 25 août 1846 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est éduqué par ses parents, puis par un tuteur, et est diplômé en droit en 1794 à Padoue. Acerbi connait les plus importantes langues européennes. Il est politiquement proche des jacobins.
 Il fait un grand voyage dans le nord de l’Europe en 1798 et visite la Suède, la Finlande, la Laponie et le cap Nord avec Bernardo Bellotti, fils d'un banquier de Brescia. En Suède ils rejoignent l'expédition d'un météorologue, un médecin, un entomologiste et un botaniste. Son récit de voyage paraît en anglais en deux volumes sous le titre de Travels through Sweden, Finland and Lappland to the North Cape, in the years 1798-1799 et qui est traduit en allemand et en français. Il y parle de ses observations des peuples autochtones, de leur culture et leurs mœurs. Il est le premier à décrire le sauna finlandais et à utiliser ce mot, et il recueille plusieurs poésies du nord de la Finlande, encore très connues dans ce pays : Jos mun tuttuni tulisi (« Si mon bien-aimé venait »), Ia ninna nanna Nuku, nuku nurmilintu (« Dors, dors, petit oiseau »), et le poème d'Antti Keksi sur l'inondation du fleuve Tornio en 1677, devenu un chant religieux. Il note aussi la mélodie de la chanson Älä sure Suomen kansa (« N'aie pas peur, peuple de Finlande »), ainsi que les mélodies du Kalevala. Il est davantage connu en Finlande qu'en son pays natal.
@@ -549,7 +563,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Travels through Sweden, Finland and Lapland, to the North Cape in the years 1798 and 1799, Londres, 1802
 Delle viti italiane o sia materiali per servire alla classificazione, Milan, 1825
